--- a/biology/Botanique/Flore_de_l'archipel_du_Svalbard/Flore_de_l'archipel_du_Svalbard.xlsx
+++ b/biology/Botanique/Flore_de_l'archipel_du_Svalbard/Flore_de_l'archipel_du_Svalbard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_de_l%27archipel_du_Svalbard</t>
+          <t>Flore_de_l'archipel_du_Svalbard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe 164 espèces de plantes vasculaires dans l'archipel du Svalbard, qui se trouve dans l'Arctique norvégien, ce qui n'inclut pas les algues, les mousses et les lichens qui sont des plantes non vasculaires. Ce nombre révèle une diversité de plantes étonnamment variée pour un écosystème nordique. Elles sont toutes à croissance lente du fait du climat extrême de cette région et atteignent rarement plus d'une dizaine de centimètres.
 Dans certains habitats, en particulier dans les vallées au climat plus clément, les plantes produisent des tapis de fleurs. Le Svalbard est divisé en quatre zones de végétation.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_de_l%27archipel_du_Svalbard</t>
+          <t>Flore_de_l'archipel_du_Svalbard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arabis alpina[1] (arabette alpine)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arabis alpina (arabette alpine)
 Arenaria pseudofrigida
 Arnica alpina
-Betula nana[1] (bouleau nain)
+Betula nana (bouleau nain)
 Braya purpurascens
 Campanula uniflora (campanule uniflore)
 Cardamine nymanii
@@ -527,7 +541,7 @@
 			Draba norvegica près de Longyearbyen (Spitzberg)
 			Dryas octopetala à Reinsdyrflya (nord de l'île de Spitzberg)
 Carex misandra
-Cassiope tetragona[1]
+Cassiope tetragona
 Cerastium arcticum
 Cochlearia officinalis
 Deschampsia alpina
@@ -536,9 +550,9 @@
 D. bellii
 D. lactea
 D. norvegica
-Dryas octopetala[1]
+Dryas octopetala
 Dupontia psilosantha
-Empetrum nigrum[1] (camarine noire)
+Empetrum nigrum (camarine noire)
 			Carex misandra près de Longyearbyen (Spitzberg)
 			Cassiope tetragona près de Longyearbyen
 			Cerastium arcticum à l'ouest de Longyearbyen
@@ -571,7 +585,7 @@
 			Pedicularis dasyantha
 			Pedicularis hirsuta dans la vallée d'Endalen (Spitzberg)
 			Polygonum viviparum (Svalbard)
-Pinguicula alpina[2]
+Pinguicula alpina
 Poa alpina
 Polemonium boreale
 Polygonum viviparum
@@ -593,9 +607,9 @@
 			Ranunculus lapponicus au milieu de l'île de Spitzberg
 			Ranunculus nivalis près de Longyearbyen (île de Spitzberg)
 			Ranunculus pedatifidus près de Longyearbyen
-Rubus chamaemorus[1]
+Rubus chamaemorus
 Salix
-Salix herbacea[1]
+Salix herbacea
 Salix polaris (saule polaire)
 			Salix polaris près d'Adventdalen (milieu de l'île de Spitzberg)
 			Salix polaris près de Longyearbyen
@@ -610,7 +624,7 @@
 S. hirculus
 S. nivalis (saxifrage des neiges)
 S. oppositifolia (saxifrage à feuilles opposées)
-S. rivularis (saxifrage des ruisseaux)[1]
+S. rivularis (saxifrage des ruisseaux)
 			Saxifraga aizoides près de Longyearbyen (île de Spitzberg)
 			Saxifraga cernua à l'île de Spitzberg
 			Saxifraga flagellaris
@@ -628,7 +642,7 @@
 Taraxacum
 T. arcticum (pissenlit arctique)
 T. brachyceras
-Vaccinium uliginosum[1] (myrtille des marais)
+Vaccinium uliginosum (myrtille des marais)
 			Stellaria crassipes près de Longyearbyen (Spitzberg)
 			Taraxacum arcticum près de Longyearbyen
 			Taraxacum brachyceras au milieu de l'île de Spitzberg
